--- a/app/assets/downloads/invoice-list.xlsx
+++ b/app/assets/downloads/invoice-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ELARU/Documents/elaine-russell/OHS/prototypes/claims-prototype/app/assets/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D197826-161E-9B4C-8B06-E219E764DBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB5D2C3-AA0D-6E4D-9C19-4F4F646A8A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33340" yWindow="-2300" windowWidth="31480" windowHeight="18820" xr2:uid="{632FA66E-AB5A-B945-85B7-F17297D70B32}"/>
+    <workbookView xWindow="30220" yWindow="-2300" windowWidth="34600" windowHeight="18820" xr2:uid="{632FA66E-AB5A-B945-85B7-F17297D70B32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Invoice reference</t>
   </si>
@@ -102,14 +102,21 @@
   </si>
   <si>
     <t>QQ 43 78 34 C</t>
+  </si>
+  <si>
+    <t>Invoice ID</t>
+  </si>
+  <si>
+    <t>PRC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="000000000"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -148,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -162,6 +169,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -478,165 +488,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89743327-978F-E447-8BBB-3E3AAFCC9E18}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1577</v>
+      </c>
+      <c r="B2" s="3">
         <v>39795425</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>19979</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>45233</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="5">
         <v>45235</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>3400.43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1576</v>
+      </c>
+      <c r="B3" s="3">
         <v>39795424</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>18667</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>45211</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>45212</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>549.98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>1575</v>
+      </c>
+      <c r="B4" s="3">
         <v>39795423</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>18260</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>45192</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>45196</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>2453.5500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
